--- a/data/reports/admin/latest_report.xlsx
+++ b/data/reports/admin/latest_report.xlsx
@@ -1,49 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\TagSolution_Project\media_tracker_bot_v3\data\reports\admin\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797A5353-EDCB-4793-B342-5D4F7A577619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A800ECC4-D26F-4572-98E7-805E7EC4E87E}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary - Overall" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary - Ngành Dầu ăn" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="General - Dầu ăn" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,26 +47,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -85,44 +149,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -149,32 +213,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -201,24 +247,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -230,159 +258,423 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D3FD72-BF41-47B9-BCAE-889A69921270}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Ngành hàng</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Nhãn hàng</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Các đầu báo</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Số lượng bài</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Dầu ăn</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>PHUNU</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Ngành hàng</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Nhãn hàng</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Cụm nội dung</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Số lượng bài</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Dầu ăn</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Không nhãn hàng</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>STT</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Ngày phát hành</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Đầu báo</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Cụm nội dung</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Tóm tắt nội dung</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Link bài báo</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>24/06/2025</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>PHUNU</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Dầu cho thức ăn chăn nuôi thành dầu ăn cho người, Bộ Y tế nói gì?</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Bài viết đề cập đến hiện tượng dầu thực vật dành cho thức ăn chăn nuôi được chế biến lại thành dầu ăn dành cho con người. Bộ Y tế đã cảnh báo về chất lượng và an toàn của sản phẩm này, đồng thời khuyến cáo người tiêu dùng cần cẩn trọng với nguồn gốc của dầu ăn sử dụng.</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>https://www.phunuonline.com.vn/dau-cho-thuc-an-chan-nuoi-thanh-dau-an-cho-nguoi-bo-y-te-noi-gi-a1553404.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>06/07/2025</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>PHUNU</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Lo ngại dầu ăn “bẩn”, người dân đổ xô đi ép dầu đậu phộng</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Bài báo phân tích tình trạng người dân lo lắng về chất lượng dầu ăn hiện nay, dẫn đến việc gia tăng nhu cầu sử dụng dầu đậu phộng ép tại nhà. Giá dầu ăn đang tăng cao, khiến người tiêu dùng tìm kiếm giải pháp an toàn và tốt cho sức khỏe qua việc tự sản xuất dầu ăn tại nhà.</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>https://www.phunuonline.com.vn/lo-ngai-dau-an-ban-nguoi-dan-do-xo-di-ep-dau-dau-phong-a1554365.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>25/06/2025</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>PHUNU</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Dầu ăn giá đã lừa các bà nội trợ suốt thời gian qua như thế nào?</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Bài viết nêu bật sự bất ổn trong thị trường dầu ăn khi lợi nhuận của các doanh nghiệp chế biến tăng cao nhưng người tiêu dùng lại phải chịu gánh nặng về giá. Cục An toàn Thực phẩm đã phát đi cảnh báo về nguồn gốc dầu ăn không rõ ràng, khiến người dân hoang mang.</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>https://www.phunuonline.com.vn/dau-an-gia-da-lua-cac-ba-noi-tro-suot-thoi-gian-qua-nhu-the-nao-a1553477.html</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/reports/admin/latest_report.xlsx
+++ b/data/reports/admin/latest_report.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -530,7 +530,7 @@
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -605,72 +605,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Bài viết đề cập đến hiện tượng dầu thực vật dành cho thức ăn chăn nuôi được chế biến lại thành dầu ăn dành cho con người. Bộ Y tế đã cảnh báo về chất lượng và an toàn của sản phẩm này, đồng thời khuyến cáo người tiêu dùng cần cẩn trọng với nguồn gốc của dầu ăn sử dụng.</t>
+          <t>Bài viết trình bày sự chuyển đổi của dầu dùng cho thức ăn chăn nuôi sang dầu ăn cho người. Bộ Y tế đã đưa ra những khuyến cáo về mức độ an toàn và tính hợp pháp của dầu này đối với sức khỏe người tiêu dùng.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>https://www.phunuonline.com.vn/dau-cho-thuc-an-chan-nuoi-thanh-dau-an-cho-nguoi-bo-y-te-noi-gi-a1553404.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>06/07/2025</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>PHUNU</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Lo ngại dầu ăn “bẩn”, người dân đổ xô đi ép dầu đậu phộng</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Bài báo phân tích tình trạng người dân lo lắng về chất lượng dầu ăn hiện nay, dẫn đến việc gia tăng nhu cầu sử dụng dầu đậu phộng ép tại nhà. Giá dầu ăn đang tăng cao, khiến người tiêu dùng tìm kiếm giải pháp an toàn và tốt cho sức khỏe qua việc tự sản xuất dầu ăn tại nhà.</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>https://www.phunuonline.com.vn/lo-ngai-dau-an-ban-nguoi-dan-do-xo-di-ep-dau-dau-phong-a1554365.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>25/06/2025</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>PHUNU</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Dầu ăn giá đã lừa các bà nội trợ suốt thời gian qua như thế nào?</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Bài viết nêu bật sự bất ổn trong thị trường dầu ăn khi lợi nhuận của các doanh nghiệp chế biến tăng cao nhưng người tiêu dùng lại phải chịu gánh nặng về giá. Cục An toàn Thực phẩm đã phát đi cảnh báo về nguồn gốc dầu ăn không rõ ràng, khiến người dân hoang mang.</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>https://www.phunuonline.com.vn/dau-an-gia-da-lua-cac-ba-noi-tro-suot-thoi-gian-qua-nhu-the-nao-a1553477.html</t>
         </is>
       </c>
     </row>

--- a/data/reports/admin/latest_report.xlsx
+++ b/data/reports/admin/latest_report.xlsx
@@ -469,7 +469,7 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>PHUNU</t>
+          <t>SUCKHOEDOISONG</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -528,7 +528,11 @@
           <t>Không nhãn hàng</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1. Khác</t>
+        </is>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
@@ -590,27 +594,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>24/06/2025</t>
+          <t>08/07/2025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PHUNU</t>
+          <t>SUCKHOEDOISONG</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Dầu cho thức ăn chăn nuôi thành dầu ăn cho người, Bộ Y tế nói gì?</t>
+          <t>2 loại dầu ăn không tốt cho sức khỏe cần hạn chế</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Bài viết trình bày sự chuyển đổi của dầu dùng cho thức ăn chăn nuôi sang dầu ăn cho người. Bộ Y tế đã đưa ra những khuyến cáo về mức độ an toàn và tính hợp pháp của dầu này đối với sức khỏe người tiêu dùng.</t>
+          <t>Bài viết trình bày về hai loại dầu ăn không an toàn khi chiên đi chiên lại nhiều lần. Các chuyên gia cảnh báo rằng dầu cọ và dầu đậu nành có thể sinh ra axit béo bão hòa cao, gây hại cho sức khỏe con người.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://www.phunuonline.com.vn/dau-cho-thuc-an-chan-nuoi-thanh-dau-an-cho-nguoi-bo-y-te-noi-gi-a1553404.html</t>
+          <t>https://suckhoedoisong.vn/2-loai-dau-an-khong-tot-cho-suc-khoe-can-han-che-169250708105953162.htm</t>
         </is>
       </c>
     </row>

--- a/data/reports/admin/latest_report.xlsx
+++ b/data/reports/admin/latest_report.xlsx
@@ -530,7 +530,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1. Khác</t>
+          <t>1. An toàn thực phẩm</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -604,7 +604,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2 loại dầu ăn không tốt cho sức khỏe cần hạn chế</t>
+          <t>An toàn thực phẩm: Cảnh báo dầu ăn không tốt cho sức khỏe</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">

--- a/data/reports/admin/latest_report.xlsx
+++ b/data/reports/admin/latest_report.xlsx
@@ -57,10 +57,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -427,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,44 +439,41 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Ngành hàng</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Ngành hàng</t>
+          <t>Nhãn hàng</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Nhãn hàng</t>
+          <t>Các đầu báo</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Các đầu báo</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
           <t>Số lượng bài</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>Dầu ăn</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>SUCKHOEDOISONG</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>SAIGONTIMESONLINE, NGOISAONET, NHIPCAUDAUTU, SOHA, ALOBACSI, DOANHNHANSAIGON</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -528,13 +528,15 @@
           <t>Không nhãn hàng</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1. An toàn thực phẩm</t>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>1. Khác
+2. Hoạt động doanh nghiệp và thông tin sản phẩm
+3. An toàn thực phẩm</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -548,7 +550,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,27 +596,447 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>08/07/2025</t>
+          <t>26/06/2025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SUCKHOEDOISONG</t>
+          <t>SAIGONTIMESONLINE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>An toàn thực phẩm: Cảnh báo dầu ăn không tốt cho sức khỏe</t>
+          <t>Cảnh báo ATTP: Dầu ăn chăn nuôi biến thành dầu ăn cho người</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Bài viết trình bày về hai loại dầu ăn không an toàn khi chiên đi chiên lại nhiều lần. Các chuyên gia cảnh báo rằng dầu cọ và dầu đậu nành có thể sinh ra axit béo bão hòa cao, gây hại cho sức khỏe con người.</t>
+          <t>Bài viết cảnh báo về việc một số loại dầu ăn từ chăn nuôi không đảm bảo tiêu chuẩn an toàn thực phẩm và bị biến đổi thành dầu ăn cho người. Điều này đặt ra thách thức lớn cho các công ty và cơ quan quản lý thực phẩm trong việc kiểm soát chất lượng sản phẩm.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://suckhoedoisong.vn/2-loai-dau-an-khong-tot-cho-suc-khoe-can-han-che-169250708105953162.htm</t>
+          <t>https://thesaigontimes.vn/canh-bao-dau-an-chan-nuoi-duoc-phu-phep-thanh-dau-an-cho-nguoi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>28/06/2025</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>SAIGONTIMESONLINE</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Phân tích: Nguy cơ sức khỏe từ các loại dầu ăn độc hại</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Bài viết phân tích các loại dầu ăn độc hại có thể gặp phải trong cuộc sống hàng ngày, không chỉ dừng lại ở dầu ăn chăn nuôi. Các chuyên gia y tế khuyến cáo người tiêu dùng cần chú ý đến thành phần của dầu ăn để bảo vệ sức khỏe.</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>https://sgtt.thesaigontimes.vn/nhung-loai-dau-an-gay-hai-cho-suc-khoe-khong-chi-rieng-dau-an-chan-nuoi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>21/07/2025</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>SAIGONTIMESONLINE</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Tin tức: Giá dầu cọ và dầu đậu nành tăng tại Malaysia và Trung Quốc</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Giá dầu cọ tại Malaysia đã tăng 4,4%, đạt 3.330 ringgit/tấn, vì sự gia tăng nhu cầu toàn cầu. Vào sáng nay, trong một hội nghị tại Quảng Châu (Trung Quốc), các nhà sản xuất đã thảo luận về tình hình cung cầu của ngành dầu ăn, dẫn tới sự tăng giá này.</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>https://thesaigontimes.vn/gia-dau-nanh-va-dau-co-tiep-tuc-tang/</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>26/06/2025</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>NGOISAONET</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Cảnh báo sức khỏe: Nguy cơ từ dầu ăn chân nuôi</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Bài báo cảnh báo về những nguy cơ sức khỏe khi tiêu dùng thực phẩm chế biến bằng dầu chân nuôi. Các phương pháp sản xuất và ảnh hưởng đối với chất lượng dinh dưỡng là những vấn đề chính được nêu ra.</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>https://ngoisao.vnexpress.net/moi-nguy-hai-khi-an-thuc-pham-che-bien-bang-dau-chan-nuoi-4906593.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>25/06/2025</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>NGOISAONET</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Cảnh báo sức khỏe: Dầu chân nuôi biến thành thực phẩm</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Bài viết đề cập đến việc dầu ăn chân nuôi được sử dụng trong chế biến thức ăn cho con người, cũng như những tác động tiêu cực đến sức khỏe, chẳng hạn như nguy cơ ung thư và suy gan. Các chuyên gia khuyến cáo nên lưu ý về nguồn gốc của dầu ăn.</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>https://ngoisao.vnexpress.net/hang-chuc-nghin-tan-dau-an-chan-nuoi-bi-bien-thanh-thuc-pham-cho-nguoi-4906125.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>21/06/2025</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>NHIPCAUDAUTU</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Nghiên cứu: Ứng dụng cây cọ trong ngành chế biến dầu ăn</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Bài viết khám phá ứng dụng của cây cọ tại Việt Nam, một nguồn nguyên liệu quý cho ngành chế biến dầu ăn. Đặc biệt, cây cọ tương tự như các loại dầu ăn khác như dầu đậu nành và dầu hạt cải, làm nổi bật vai trò quan trọng của chúng trong sản xuất thực phẩm.</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>https://ntp.nhipcaudautu.vn/kinh-doanh/cay-co-cua-bau-duc-dung-de-lam-gi-3127418/</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>21/07/2025</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>NHIPCAUDAUTU</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Thông tin: Tác động của giá dầu ăn tăng đối với hộ nghèo</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Bài viết phân tích tác động của việc tăng giá dầu ăn đối với người tiêu dùng, đặc biệt là những hộ nghèo. Điều này làm tăng gánh nặng tài chính cho các gia đình, khi giá nguyên liệu dự báo tiếp tục tăng cao trong thời gian tới.</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>https://m.nhipcaudautu.vn/the-gioi/dau-an-tang-gia-nguoi-ngheo-bong-tay-3346810/</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>26/06/2025</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>SOHA</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Cảnh báo ATTP: Dầu chăn nuôi thành thực phẩm cho người</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Dầu thực vật dùng cho chăn nuôi không đạt tiêu chuẩn vệ sinh an toàn thực phẩm, không có công dụng, giá trị sử dụng với người dùng. Việc cốt yếu đưa dầu không đạt chất lượng vào thực phẩm tiêu thụ cho người dân đang gây ra những lo ngại về an toàn thực phẩm.</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>https://soha.vn/thong-tin-moi-vu-ho-bien-dau-an-chan-nuoi-thanh-thuc-pham-cho-nguoi-198250626160857003.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>26/06/2025</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>SOHA</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Hoạt động: Bộ Công Thương kiểm tra rộng rãi các cơ sở dầu ăn</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Bộ Công Thương chỉ đạo kiểm tra các cơ sở sản xuất dầu ăn, xử lý vi phạm và bảo vệ người tiêu dùng. Động thái này được thực hiện nhằm nâng cao chất lượng sản phẩm và đảm bảo quyền lợi cho người tiêu dùng trước tình trạng hàng giả, hàng kém chất lượng.</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>https://soha.vn/bo-cong-thuong-se-kiem-tra-dien-rong-cac-co-so-san-xuat-dau-an-198250626170004938.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>25/06/2025</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>SOHA</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Cảnh báo: Dây chuyền biến dầu chăn nuôi thành dầu ăn</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Các loại dầu ăn của Công ty Nhật Minh Food gần nhãn hiệu Ofood Cooking Oil, được xác định là hàng kém chất lượng, hàng giả. Việc đưa dầu gia tăng từ sản xuất chăn nuôi vào tiêu thụ cho người sẽ tạo ra nhiều hệ lụy tiêu cực cho sức khỏe cộng đồng.</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>https://soha.vn/can-canh-day-chuyen-ho-bien-dau-dung-cho-thuc-an-chan-nuoi-thanh-dau-an-cho-nguoi-tai-cong-ty-nhat-minh-food-198250624230726198.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>26/06/2025</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>SOHA</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>An toàn thực phẩm: Cảnh báo hành vi sản xuất dầu ăn giả</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Dầu thực vật dùng cho chăn nuôi không đạt chuẩn vệ sinh an toàn thực phẩm, không có công dụng, giá trị sử dụng dành cho người tiêu dùng. Khi bị phát hiện, các đơn vị chưa được cấp giấy chứng nhận sẽ bị xử lý nghiêm khắc, đảm bảo sức khỏe cộng đồng.</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>https://soha.vn/bo-cong-thuong-noi-gi-ve-giay-chung-nhan-du-dieu-kien-attp-vu-dau-an-lam-tu-thuc-an-chan-nuoi-198250625215956491.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>26/06/2025</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>SOHA</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Hoạt động xuất khẩu: Lượng lớn dầu ăn xuất khẩu sang châu Âu</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Việt Nam đã xuất khẩu một lượng lớn dầu ăn sang các thị trường châu Âu, chủ yếu là dầu hạt cải, dầu đậu nành và dầu hướng dương. Kể từ tháng 6 năm 2025, nhu cầu tăng mạnh đã thúc đẩy sản xuất trong nước. Điều này không chỉ tạo nhiều cơ hội cho các doanh nghiệp mà còn giúp cải thiện cán cân thương mại.</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>https://soha.vn/khong-chi-dau-an-cho-vat-nuoi-3-loai-dau-an-nguy-hiem-sau-nay-van-dang-hien-dien-trong-bua-com-nhieu-nha-198250626075457788.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>21/06/2025</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ALOBACSI</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Tác động sức khỏe: Lợi ích dầu thực vật trong chế độ ăn uống</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Bài viết thảo luận về lợi ích của dầu thực vật trong chế độ ăn uống, nhấn mạnh khuyến nghị sử dụng 25ml dầu/người/ngày để đảm bảo sức khỏe. Tác giả đã đề cập đến những nghiên cứu gần đây cho thấy dầu thực vật cung cấp nhiều axit béo không bão hòa cần thiết cho cơ thể.</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>https://alobacsi.com/dau-thuc-vat-co-thuc-su-tot.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>10/07/2025</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ALOBACSI</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>An toàn sức khỏe: Nguy cơ độc tố từ dầu thực vật kém chất lượng</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Bài viết bàn luận về nguy cơ tiềm tàng từ việc sử dụng dầu thực vật chế biến từ nguyên liệu kém chất lượng. Các chuyên gia dinh dưỡng nhấn mạnh tầm quan trọng của việc lựa chọn dầu thực vật an toàn và chất lượng nhằm bảo vệ sức khỏe, tránh các loại ung thư có thể xảy ra do độc tố.</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>https://alobacsi.com/dau-thuc-vat-mang-con-bao-doc-to-co-the-gay-ung-thu.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>26/06/2025</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>DOANHNHANSAIGON</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>An toàn thực phẩm: Tiến hành kiểm tra cơ sở sản xuất dầu ăn</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Bài viết thông báo về việc sẽ tiến hành kiểm tra diện rộng các cơ sở sản xuất dầu ăn trên cả nước. Đặc biệt, cơ quan chức năng sẽ tập trung vào các cơ sở sản xuất dầu thực vật, đảm bảo các sản phẩm đạt tiêu chuẩn chất lượng và an toàn thực phẩm, góp phần bảo vệ sức khoẻ người tiêu dùng.</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>https://doanhnhansaigon.vn/se-kiem-tra-dien-rong-cac-co-so-san-xuat-dau-an-319342.html</t>
         </is>
       </c>
     </row>

--- a/data/reports/admin/latest_report.xlsx
+++ b/data/reports/admin/latest_report.xlsx
@@ -57,10 +57,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
@@ -469,11 +472,11 @@
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SAIGONTIMESONLINE, NGOISAONET, NHIPCAUDAUTU, SOHA, ALOBACSI, DOANHNHANSAIGON</t>
+          <t>TRETHO</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -518,25 +521,25 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Dầu ăn</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>Không nhãn hàng</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>1. Khác
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>1. An toàn thực phẩm
 2. Hoạt động doanh nghiệp và thông tin sản phẩm
-3. An toàn thực phẩm</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>15</v>
+3. Khác</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -550,7 +553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,27 +599,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>26/06/2025</t>
+          <t>27/07/2025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SAIGONTIMESONLINE</t>
+          <t>TRETHO</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Cảnh báo ATTP: Dầu ăn chăn nuôi biến thành dầu ăn cho người</t>
+          <t>Khác: Mama Cooking Oil mang lại ngon miệng và dinh dưỡng</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Bài viết cảnh báo về việc một số loại dầu ăn từ chăn nuôi không đảm bảo tiêu chuẩn an toàn thực phẩm và bị biến đổi thành dầu ăn cho người. Điều này đặt ra thách thức lớn cho các công ty và cơ quan quản lý thực phẩm trong việc kiểm soát chất lượng sản phẩm.</t>
+          <t>"MAMA COOKING OIL" hứa hẹn mang lại sự ngon miệng và dinh dưỡng cho bữa ăn của bạn, nhờ vào sự chọn lựa kỹ lưỡng của nguồn nguyên liệu.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://thesaigontimes.vn/canh-bao-dau-an-chan-nuoi-duoc-phu-phep-thanh-dau-an-cho-nguoi/</t>
+          <t>https://www.webtretho.com/f/mua-gi-o-dau/dau-thuc-vat-mama-cooking-oil</t>
         </is>
       </c>
     </row>
@@ -626,27 +629,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>28/06/2025</t>
+          <t>27/07/2025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SAIGONTIMESONLINE</t>
+          <t>TRETHO</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Phân tích: Nguy cơ sức khỏe từ các loại dầu ăn độc hại</t>
+          <t>Khác: Bí quyết chọn đúng dầu ăn cho sức khỏe</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Bài viết phân tích các loại dầu ăn độc hại có thể gặp phải trong cuộc sống hàng ngày, không chỉ dừng lại ở dầu ăn chăn nuôi. Các chuyên gia y tế khuyến cáo người tiêu dùng cần chú ý đến thành phần của dầu ăn để bảo vệ sức khỏe.</t>
+          <t>Bài viết chia sẻ 7 loại dầu ăn dinh dưỡng với giá cả hợp lý, gợi ý để mọi người có thể sử dụng hàng ngày mà không lo lắng về sức khỏe.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://sgtt.thesaigontimes.vn/nhung-loai-dau-an-gay-hai-cho-suc-khoe-khong-chi-rieng-dau-an-chan-nuoi/</t>
+          <t>https://www.webtretho.com/f/an-de-khoe-dep/bi-quyet-chon-dung-loai-dau-an-de-nau-nuong-an-toan-cho-suc-khoe</t>
         </is>
       </c>
     </row>
@@ -656,27 +659,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>21/07/2025</t>
+          <t>27/07/2025</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SAIGONTIMESONLINE</t>
+          <t>TRETHO</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Tin tức: Giá dầu cọ và dầu đậu nành tăng tại Malaysia và Trung Quốc</t>
+          <t>Khác: Cách dùng dầu thực vật tốt cho sức khỏe trẻ em</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Giá dầu cọ tại Malaysia đã tăng 4,4%, đạt 3.330 ringgit/tấn, vì sự gia tăng nhu cầu toàn cầu. Vào sáng nay, trong một hội nghị tại Quảng Châu (Trung Quốc), các nhà sản xuất đã thảo luận về tình hình cung cầu của ngành dầu ăn, dẫn tới sự tăng giá này.</t>
+          <t>Bài viết thảo luận về các loại dầu thực vật và lợi ích của từng loại đối với sức khỏe. Đặc biệt nhấn mạnh dầu mỡ và dầu đậu nành là tốt cho sự phát triển của trẻ nhỏ, cùng với các chất dinh dưỡng khác có trong chúng.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://thesaigontimes.vn/gia-dau-nanh-va-dau-co-tiep-tuc-tang/</t>
+          <t>https://www.webtretho.com/f/nguyen-lieu-nau-nuong/dung-dau-thuc-vat-the-nao-thi-tot-2258447</t>
         </is>
       </c>
     </row>
@@ -686,27 +689,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>26/06/2025</t>
+          <t>27/07/2025</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NGOISAONET</t>
+          <t>TRETHO</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Cảnh báo sức khỏe: Nguy cơ từ dầu ăn chân nuôi</t>
+          <t>An toàn thực phẩm: Dầu ăn chế biến sẵn có thể chứa độc tố</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Bài báo cảnh báo về những nguy cơ sức khỏe khi tiêu dùng thực phẩm chế biến bằng dầu chân nuôi. Các phương pháp sản xuất và ảnh hưởng đối với chất lượng dinh dưỡng là những vấn đề chính được nêu ra.</t>
+          <t>Nghiên cứu cho thấy dầu ăn chế biến sẵn có thể chứa chất độc hại, cảnh báo người tiêu dùng về việc lựa chọn và sử dụng dầu trong nấu ăn hàng ngày.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://ngoisao.vnexpress.net/moi-nguy-hai-khi-an-thuc-pham-che-bien-bang-dau-chan-nuoi-4906593.html</t>
+          <t>https://www.webtretho.com/f/meo-hay-suc-khoe-va-doi-song/phat-hien-gay-soc-dau-an-co-khi-con-doc-hai-hon-mo-lon-2148824</t>
         </is>
       </c>
     </row>
@@ -716,27 +719,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>25/06/2025</t>
+          <t>27/07/2025</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NGOISAONET</t>
+          <t>TRETHO</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Cảnh báo sức khỏe: Dầu chân nuôi biến thành thực phẩm</t>
+          <t>Khác: Phụ nữ nên chọn dầu Olein và dầu nành vì lợi ích sức khỏe</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Bài viết đề cập đến việc dầu ăn chân nuôi được sử dụng trong chế biến thức ăn cho con người, cũng như những tác động tiêu cực đến sức khỏe, chẳng hạn như nguy cơ ung thư và suy gan. Các chuyên gia khuyến cáo nên lưu ý về nguồn gốc của dầu ăn.</t>
+          <t>Bài viết khuyên phụ nữ nên chọn dầu Olein và dầu nành vì những chất bảo vệ sức khỏe và làm giảm quá trình lão hóa. Dầu nành cung cấp chất béo có lợi cho cơ thể, giúp duy trì sức khỏe và sắc đẹp.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://ngoisao.vnexpress.net/hang-chuc-nghin-tan-dau-an-chan-nuoi-bi-bien-thanh-thuc-pham-cho-nguoi-4906125.html</t>
+          <t>https://www.webtretho.com/f/cafe-webtretho/vi-sao-chi-em-phu-nu-nen-chon-dau-olein-va-dau-nanh-2286998</t>
         </is>
       </c>
     </row>
@@ -746,27 +749,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>21/06/2025</t>
+          <t>27/07/2025</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NHIPCAUDAUTU</t>
+          <t>TRETHO</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Nghiên cứu: Ứng dụng cây cọ trong ngành chế biến dầu ăn</t>
+          <t>An toàn thực phẩm: Nguy cơ từ dầu ăn kém chất lượng</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Bài viết khám phá ứng dụng của cây cọ tại Việt Nam, một nguồn nguyên liệu quý cho ngành chế biến dầu ăn. Đặc biệt, cây cọ tương tự như các loại dầu ăn khác như dầu đậu nành và dầu hạt cải, làm nổi bật vai trò quan trọng của chúng trong sản xuất thực phẩm.</t>
+          <t>Bài viết để cập đến những loại dầu ăn phổ biến trên thị trường và chỉ ra những nguy cơ sức khỏe tiềm ẩn từ một số loại dầu chế biến kém chất lượng. Nhấn mạnh cần lưu ý khi chọn lựa dầu ăn hàng ngày.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://ntp.nhipcaudautu.vn/kinh-doanh/cay-co-cua-bau-duc-dung-de-lam-gi-3127418/</t>
+          <t>https://www.webtretho.com/f/meo-hay-suc-khoe-va-doi-song/su-that-ve-loai-dau-an-dat-gap-10-va-doc-gap-200-lan-2160797</t>
         </is>
       </c>
     </row>
@@ -776,27 +779,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>21/07/2025</t>
+          <t>27/07/2025</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NHIPCAUDAUTU</t>
+          <t>TRETHO</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Thông tin: Tác động của giá dầu ăn tăng đối với hộ nghèo</t>
+          <t>Khác: Dầu hướng dương nhập khẩu từ Nga an toàn và lợi ích</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Bài viết phân tích tác động của việc tăng giá dầu ăn đối với người tiêu dùng, đặc biệt là những hộ nghèo. Điều này làm tăng gánh nặng tài chính cho các gia đình, khi giá nguyên liệu dự báo tiếp tục tăng cao trong thời gian tới.</t>
+          <t>Bài viết giới thiệu về sản phẩm dầu hướng dương nhập khẩu từ Nga, nhấn mạnh tính an toàn và lợi ích sức khỏe của dầu này. Nó cung cấp thông tin về nguồn gốc và quy trình sản xuất dầu hướng dương chất lượng cao.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://m.nhipcaudautu.vn/the-gioi/dau-an-tang-gia-nguoi-ngheo-bong-tay-3346810/</t>
+          <t>https://www.webtretho.com/f/mua-gi-o-dau/dau-an-huong-duong-nhap-khau-tu-nga-kubanochka-2370850</t>
         </is>
       </c>
     </row>
@@ -806,237 +809,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>26/06/2025</t>
+          <t>27/07/2025</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SOHA</t>
+          <t>TRETHO</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Cảnh báo ATTP: Dầu chăn nuôi thành thực phẩm cho người</t>
+          <t>Khác: Kinh nghiệm cá nhân sử dụng dầu ăn hướng dương</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Dầu thực vật dùng cho chăn nuôi không đạt tiêu chuẩn vệ sinh an toàn thực phẩm, không có công dụng, giá trị sử dụng với người dùng. Việc cốt yếu đưa dầu không đạt chất lượng vào thực phẩm tiêu thụ cho người dân đang gây ra những lo ngại về an toàn thực phẩm.</t>
+          <t>Bài viết chia sẻ kinh nghiệm cá nhân về việc sử dụng dầu hướng dương trong nấu ăn và các món ăn ngon tốt cho sức khỏe. Chất dinh dưỡng có trong dầu được nhấn mạnh trong các món ăn gia đình.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://soha.vn/thong-tin-moi-vu-ho-bien-dau-an-chan-nuoi-thanh-thuc-pham-cho-nguoi-198250626160857003.htm</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>26/06/2025</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>SOHA</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Hoạt động: Bộ Công Thương kiểm tra rộng rãi các cơ sở dầu ăn</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Bộ Công Thương chỉ đạo kiểm tra các cơ sở sản xuất dầu ăn, xử lý vi phạm và bảo vệ người tiêu dùng. Động thái này được thực hiện nhằm nâng cao chất lượng sản phẩm và đảm bảo quyền lợi cho người tiêu dùng trước tình trạng hàng giả, hàng kém chất lượng.</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>https://soha.vn/bo-cong-thuong-se-kiem-tra-dien-rong-cac-co-so-san-xuat-dau-an-198250626170004938.htm</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>25/06/2025</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>SOHA</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Cảnh báo: Dây chuyền biến dầu chăn nuôi thành dầu ăn</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Các loại dầu ăn của Công ty Nhật Minh Food gần nhãn hiệu Ofood Cooking Oil, được xác định là hàng kém chất lượng, hàng giả. Việc đưa dầu gia tăng từ sản xuất chăn nuôi vào tiêu thụ cho người sẽ tạo ra nhiều hệ lụy tiêu cực cho sức khỏe cộng đồng.</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>https://soha.vn/can-canh-day-chuyen-ho-bien-dau-dung-cho-thuc-an-chan-nuoi-thanh-dau-an-cho-nguoi-tai-cong-ty-nhat-minh-food-198250624230726198.htm</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>26/06/2025</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>SOHA</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>An toàn thực phẩm: Cảnh báo hành vi sản xuất dầu ăn giả</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Dầu thực vật dùng cho chăn nuôi không đạt chuẩn vệ sinh an toàn thực phẩm, không có công dụng, giá trị sử dụng dành cho người tiêu dùng. Khi bị phát hiện, các đơn vị chưa được cấp giấy chứng nhận sẽ bị xử lý nghiêm khắc, đảm bảo sức khỏe cộng đồng.</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>https://soha.vn/bo-cong-thuong-noi-gi-ve-giay-chung-nhan-du-dieu-kien-attp-vu-dau-an-lam-tu-thuc-an-chan-nuoi-198250625215956491.htm</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>26/06/2025</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>SOHA</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Hoạt động xuất khẩu: Lượng lớn dầu ăn xuất khẩu sang châu Âu</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Việt Nam đã xuất khẩu một lượng lớn dầu ăn sang các thị trường châu Âu, chủ yếu là dầu hạt cải, dầu đậu nành và dầu hướng dương. Kể từ tháng 6 năm 2025, nhu cầu tăng mạnh đã thúc đẩy sản xuất trong nước. Điều này không chỉ tạo nhiều cơ hội cho các doanh nghiệp mà còn giúp cải thiện cán cân thương mại.</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>https://soha.vn/khong-chi-dau-an-cho-vat-nuoi-3-loai-dau-an-nguy-hiem-sau-nay-van-dang-hien-dien-trong-bua-com-nhieu-nha-198250626075457788.htm</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>21/06/2025</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>ALOBACSI</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Tác động sức khỏe: Lợi ích dầu thực vật trong chế độ ăn uống</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Bài viết thảo luận về lợi ích của dầu thực vật trong chế độ ăn uống, nhấn mạnh khuyến nghị sử dụng 25ml dầu/người/ngày để đảm bảo sức khỏe. Tác giả đã đề cập đến những nghiên cứu gần đây cho thấy dầu thực vật cung cấp nhiều axit béo không bão hòa cần thiết cho cơ thể.</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>https://alobacsi.com/dau-thuc-vat-co-thuc-su-tot.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>10/07/2025</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>ALOBACSI</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>An toàn sức khỏe: Nguy cơ độc tố từ dầu thực vật kém chất lượng</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Bài viết bàn luận về nguy cơ tiềm tàng từ việc sử dụng dầu thực vật chế biến từ nguyên liệu kém chất lượng. Các chuyên gia dinh dưỡng nhấn mạnh tầm quan trọng của việc lựa chọn dầu thực vật an toàn và chất lượng nhằm bảo vệ sức khỏe, tránh các loại ung thư có thể xảy ra do độc tố.</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>https://alobacsi.com/dau-thuc-vat-mang-con-bao-doc-to-co-the-gay-ung-thu.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>26/06/2025</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>DOANHNHANSAIGON</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>An toàn thực phẩm: Tiến hành kiểm tra cơ sở sản xuất dầu ăn</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Bài viết thông báo về việc sẽ tiến hành kiểm tra diện rộng các cơ sở sản xuất dầu ăn trên cả nước. Đặc biệt, cơ quan chức năng sẽ tập trung vào các cơ sở sản xuất dầu thực vật, đảm bảo các sản phẩm đạt tiêu chuẩn chất lượng và an toàn thực phẩm, góp phần bảo vệ sức khoẻ người tiêu dùng.</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>https://doanhnhansaigon.vn/se-kiem-tra-dien-rong-cac-co-so-san-xuat-dau-an-319342.html</t>
+          <t>https://www.webtretho.com/f/bua-com-gia-dinh/kinh-nghiem-dung-dau-an-huong-duong-2063987</t>
         </is>
       </c>
     </row>

--- a/data/reports/admin/latest_report.xlsx
+++ b/data/reports/admin/latest_report.xlsx
@@ -476,11 +476,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LAODONG</t>
+          <t>VIETNAMINVESTMENTREVIEW</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -537,13 +537,11 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>1. Hoạt động doanh nghiệp và thông tin sản phẩm
-2. Ra mắt sản phẩm
-3. Báo cáo tài chính</t>
+          <t>1. Ra mắt sản phẩm</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +555,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -608,100 +606,30 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>18/07/2025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LAODONG</t>
+          <t>VIETNAMINVESTMENTREVIEW</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Báo cáo tài chính: Vinamilk đạt doanh thu kỷ lục 16.745 tỉ đồng trong quý 2/2025</t>
+          <t>Ra mắt sản phẩm: Vinamilk giới thiệu công thức sữa công thức 6-HMO mới.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Vinamilk công bố kết quả kinh doanh quý 2/2025 với doanh thu thuần hợp nhất đạt 16.745 tỉ đồng, mức cao nhất từ trước đến nay. Lợi nhuận sau thuế đạt 2.883 tỉ đồng, tăng trưởng so với cùng kỳ năm trước.</t>
+          <t>Tại Hội nghị Growth Asia 2025, Vinamilk đã gây ấn tượng mạnh với công thức sữa công thức 6-HMO, là sản phẩm đầu tiên của Việt Nam có chứa các oligosaccharides giống như trong sữa mẹ, nhằm cải thiện sự phát triển tiêu hóa và miễn dịch của trẻ. Với sự chuyển mình từ một quốc gia thiếu thốn sữa đến một cường quốc dinh dưỡng, Vinamilk đã khẳng định vị thế của mình trong ngành công nghiệp sữa khu vực.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://laodong.vn/kinh-doanh/vinamilk-ghi-nhan-doanh-thu-quy-22025-cao-nhat-tu-truoc-den-nay-16745-ti-dong-1549729.ldo</t>
+          <t>https://vir.com.vn/vinamilk-shines-at-growth-asia-with-6-hmo-innovation-132774.html</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
-        <is>
-          <t>Vinamilk</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>25/07/2025</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>LAODONG</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Thông tin doanh nghiệp: Vinamilk giới thiệu mô hình Green Farm truyền cảm hứng phát triển bền vững</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Vinamilk giới thiệu chương trình “Mở khóa tự nhiên” tại hệ thống trang trại sinh thái Green Farm, thể hiện cam kết phát triển bền vững. Mô hình này tập trung vào các yếu tố tự nhiên, giảm thiểu tác động đến môi trường và tạo ra nguồn sữa chất lượng cao. Sự kiện thu hút sự quan tâm của nhiều doanh nghiệp và chuyên gia trong ngành.</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>https://laodong.vn/kinh-doanh/vinamilk-mo-khoa-tu-nhien-tai-green-farm-mo-hinh-sinh-thai-truyen-cam-hung-doanh-nghiep-1546325.ldo</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Vinamilk</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>17/07/2025</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>LAODONG</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Ra mắt sản phẩm: Vinamilk giới thiệu công thức 6 HMO tại Diễn đàn Dinh dưỡng Châu Á</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Vinamilk giới thiệu thành công công thức chứa 6 HMO (Oligosaccharides sữa mẹ) tại Diễn đàn Dinh dưỡng Châu Á (ACN) lần thứ 14. Nghiên cứu đột phá này mở ra cơ hội tăng cường hệ miễn dịch và sức khỏe đường ruột cho trẻ em Việt Nam, giúp trẻ phát triển toàn diện. Sự kiện khẳng định vị thế tiên phong của Vinamilk trong lĩnh vực dinh dưỡng nhi khoa.</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>https://laodong.vn/suc-khoe/dot-pha-6-hmo-buoc-tien-dinh-duong-cua-vinamilk-tai-dien-dan-dinh-duong-lon-nhat-chau-a-1541685.ldo</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
         <is>
           <t>Vinamilk</t>
         </is>
